--- a/data/trans_orig/P64E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{629C29BB-7A64-4FBA-9C11-BFE603170719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0103503-CA5B-48CB-86E7-2FF4A4C2B9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C562B1BC-2155-42F9-A13D-46A66426883C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB1944CA-63EA-4424-A760-036B2267A72C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="561">
   <si>
     <t>Población según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 42,65%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>4,93%</t>
   </si>
   <si>
     <t>0,78%</t>
@@ -98,1636 +98,1630 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>De 10 a 20</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>De 6 a 9</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>De 1 a 5</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2015 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>De 10 a 20</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>De 6 a 9</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>De 1 a 5</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2015 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3AE90B-CD42-406D-9ED8-DEDE38006198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8C2094-44A9-46CA-9434-C73123300988}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2640,10 +2634,10 @@
         <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2652,10 +2646,10 @@
         <v>23565</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>72</v>
@@ -2754,13 +2748,13 @@
         <v>200034</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2769,13 @@
         <v>897480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -2790,13 +2784,13 @@
         <v>518531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>1353</v>
@@ -2805,13 +2799,13 @@
         <v>1416011</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2873,13 @@
         <v>13088</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2894,13 +2888,13 @@
         <v>6658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2909,13 +2903,13 @@
         <v>19746</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2924,13 @@
         <v>17355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2945,10 +2939,10 @@
         <v>8256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>114</v>
@@ -2996,13 +2990,13 @@
         <v>5876</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -3011,13 +3005,13 @@
         <v>20811</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3026,13 @@
         <v>80559</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3047,13 +3041,13 @@
         <v>30635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -3062,13 +3056,13 @@
         <v>111194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3077,13 @@
         <v>272778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>227</v>
@@ -3098,13 +3092,13 @@
         <v>238054</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -3113,13 +3107,13 @@
         <v>510832</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3181,13 @@
         <v>30789</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3202,13 +3196,13 @@
         <v>9600</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3217,13 +3211,13 @@
         <v>40389</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3232,13 @@
         <v>35640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3253,13 +3247,13 @@
         <v>16457</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -3268,13 +3262,13 @@
         <v>52097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3283,13 @@
         <v>50451</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3304,13 +3298,13 @@
         <v>9838</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -3319,13 +3313,13 @@
         <v>60289</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3334,13 @@
         <v>282686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -3355,13 +3349,13 @@
         <v>78795</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>349</v>
@@ -3370,13 +3364,13 @@
         <v>361481</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3385,13 @@
         <v>1485577</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>864</v>
@@ -3406,13 +3400,13 @@
         <v>902849</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>2280</v>
@@ -3421,13 +3415,13 @@
         <v>2388426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,7 +3477,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31014F4-565C-4A32-8CBA-3C75DEBE683F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17615B0D-9350-4916-8F97-55A7F149B95E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3519,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3626,13 +3620,13 @@
         <v>1948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3647,7 +3641,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3656,13 +3650,13 @@
         <v>1948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3671,13 @@
         <v>1085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3698,7 +3692,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3707,13 +3701,13 @@
         <v>1085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3722,13 @@
         <v>1880</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3743,13 +3737,13 @@
         <v>2034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -3758,13 +3752,13 @@
         <v>3914</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3773,13 @@
         <v>20501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3794,13 +3788,13 @@
         <v>11123</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -3809,13 +3803,13 @@
         <v>31624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3824,13 @@
         <v>158604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -3845,13 +3839,13 @@
         <v>126820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>269</v>
@@ -3860,13 +3854,13 @@
         <v>285424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3928,13 @@
         <v>15739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3955,7 +3949,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3964,13 +3958,13 @@
         <v>17706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3979,13 @@
         <v>11379</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4006,7 +4000,7 @@
         <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -4015,13 +4009,13 @@
         <v>18416</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4030,13 @@
         <v>22721</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4051,13 +4045,13 @@
         <v>7723</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -4066,13 +4060,13 @@
         <v>30444</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4081,13 @@
         <v>156789</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -4102,13 +4096,13 @@
         <v>47558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>193</v>
@@ -4117,13 +4111,13 @@
         <v>204348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4132,13 @@
         <v>705911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>476</v>
@@ -4153,13 +4147,13 @@
         <v>507642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>1145</v>
@@ -4168,13 +4162,13 @@
         <v>1213553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,7 +4224,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4242,13 +4236,13 @@
         <v>12284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4257,13 +4251,13 @@
         <v>2942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4272,13 +4266,13 @@
         <v>15226</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4287,13 @@
         <v>11641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4311,10 +4305,10 @@
         <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4323,13 +4317,13 @@
         <v>14717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4338,13 @@
         <v>14355</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4359,13 +4353,13 @@
         <v>1064</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -4374,13 +4368,13 @@
         <v>15420</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4389,13 @@
         <v>83070</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4410,13 +4404,13 @@
         <v>30261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -4425,13 +4419,13 @@
         <v>113331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4440,13 @@
         <v>193970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -4461,13 +4455,13 @@
         <v>197553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -4476,13 +4470,13 @@
         <v>391523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4544,13 @@
         <v>29971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4565,13 +4559,13 @@
         <v>4909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -4580,13 +4574,13 @@
         <v>34880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4595,13 @@
         <v>24104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -4616,13 +4610,13 @@
         <v>10114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -4631,13 +4625,13 @@
         <v>34218</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4646,13 @@
         <v>38956</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4667,13 +4661,13 @@
         <v>10822</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -4682,13 +4676,13 @@
         <v>49778</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4697,13 @@
         <v>260361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -4718,13 +4712,13 @@
         <v>88942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -4733,13 +4727,13 @@
         <v>349303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4748,13 @@
         <v>1058484</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>773</v>
@@ -4769,13 +4763,13 @@
         <v>832017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>1767</v>
@@ -4784,13 +4778,13 @@
         <v>1890501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,7 +4840,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4865,7 +4859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE10CAF6-E786-4A8B-ACEB-9D9E3B009DFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE45DC50-2B62-4693-99A3-FD41A22C0A66}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4882,7 +4876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4995,7 +4989,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5010,7 +5004,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5046,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5061,7 +5055,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5091,13 +5085,13 @@
         <v>5043</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5106,13 +5100,13 @@
         <v>1112</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5121,13 +5115,13 @@
         <v>6155</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5136,13 @@
         <v>17987</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5157,13 +5151,13 @@
         <v>3082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -5172,13 +5166,13 @@
         <v>21069</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5187,13 @@
         <v>116938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -5208,13 +5202,13 @@
         <v>66908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -5223,13 +5217,13 @@
         <v>183845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5291,13 @@
         <v>6953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5312,13 +5306,13 @@
         <v>5427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5327,13 +5321,13 @@
         <v>12380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5342,13 @@
         <v>10981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5363,13 +5357,13 @@
         <v>885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5378,13 +5372,13 @@
         <v>11866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5393,13 @@
         <v>19777</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5414,13 +5408,13 @@
         <v>7770</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>356</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -5429,13 +5423,13 @@
         <v>27548</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>116</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5444,13 @@
         <v>100971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5465,13 +5459,13 @@
         <v>41556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -5480,13 +5474,13 @@
         <v>142527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5495,13 @@
         <v>779430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -5516,13 +5510,13 @@
         <v>593953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>1317</v>
@@ -5531,13 +5525,13 @@
         <v>1373382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,7 +5587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5605,13 +5599,13 @@
         <v>11141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5620,13 +5614,13 @@
         <v>1813</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5635,13 +5629,13 @@
         <v>12954</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5650,13 @@
         <v>7914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5671,13 +5665,13 @@
         <v>4731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5686,13 +5680,13 @@
         <v>12645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5701,13 @@
         <v>18839</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5722,13 +5716,13 @@
         <v>8181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5737,13 +5731,13 @@
         <v>27020</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5752,13 @@
         <v>57386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -5773,13 +5767,13 @@
         <v>29262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -5788,13 +5782,13 @@
         <v>86649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5803,13 @@
         <v>252762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -5824,13 +5818,13 @@
         <v>261621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -5839,13 +5833,13 @@
         <v>514384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5907,13 @@
         <v>18094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5928,13 +5922,13 @@
         <v>7240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5943,13 +5937,13 @@
         <v>25334</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5958,13 @@
         <v>18894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5979,13 +5973,13 @@
         <v>5616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>61</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -5994,13 +5988,13 @@
         <v>24511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6009,13 @@
         <v>43659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>360</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -6030,13 +6024,13 @@
         <v>17064</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>423</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>428</v>
+        <v>259</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
@@ -6045,13 +6039,13 @@
         <v>60722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>429</v>
+        <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>291</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6060,13 @@
         <v>176344</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -6081,13 +6075,13 @@
         <v>73900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>102</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -6096,13 +6090,13 @@
         <v>250244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6111,13 @@
         <v>1149130</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>905</v>
@@ -6132,13 +6126,13 @@
         <v>922481</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M26" s="7">
         <v>1980</v>
@@ -6147,13 +6141,13 @@
         <v>2071611</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>440</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,7 +6203,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6228,7 +6222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F333B62-AC47-4AF7-8161-FBE407B8F688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03795EFD-A120-4A3A-B9BE-9CF69D3A52DB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6245,7 +6239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6358,7 +6352,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6373,7 +6367,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6388,7 +6382,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6397,13 @@
         <v>5702</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6424,7 +6418,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6433,13 +6427,13 @@
         <v>5702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6448,13 @@
         <v>1467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6475,7 +6469,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6490,7 +6484,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6499,13 @@
         <v>6120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -6520,13 +6514,13 @@
         <v>6050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>457</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -6535,13 +6529,13 @@
         <v>12170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>460</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6550,13 @@
         <v>120910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
         <v>114</v>
@@ -6571,13 +6565,13 @@
         <v>86038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
         <v>243</v>
@@ -6586,13 +6580,13 @@
         <v>206947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,13 +6654,13 @@
         <v>20624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>471</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6675,13 +6669,13 @@
         <v>2282</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>474</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -6690,13 +6684,13 @@
         <v>22905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6705,13 @@
         <v>64596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>477</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -6726,13 +6720,13 @@
         <v>6639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -6741,13 +6735,13 @@
         <v>71235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6756,13 @@
         <v>37631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>307</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>126</v>
+        <v>474</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6777,13 +6771,13 @@
         <v>10357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>296</v>
+        <v>475</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -6792,13 +6786,13 @@
         <v>47988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6807,13 @@
         <v>109014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6828,13 +6822,13 @@
         <v>44797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>481</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -6843,13 +6837,13 @@
         <v>153811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,13 +6858,13 @@
         <v>997728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>1165</v>
@@ -6879,13 +6873,13 @@
         <v>876898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>2079</v>
@@ -6894,13 +6888,13 @@
         <v>1874626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>499</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,7 +6950,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6968,13 +6962,13 @@
         <v>21903</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>496</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6983,13 +6977,13 @@
         <v>7169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>498</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -6998,13 +6992,13 @@
         <v>29072</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +7013,13 @@
         <v>11525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>501</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -7034,13 +7028,13 @@
         <v>11138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>508</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7049,13 +7043,13 @@
         <v>22662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>155</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7064,13 @@
         <v>24394</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -7085,13 +7079,13 @@
         <v>11301</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -7100,13 +7094,13 @@
         <v>35695</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7121,13 +7115,13 @@
         <v>67571</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -7136,7 +7130,7 @@
         <v>43971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>519</v>
@@ -7178,7 +7172,7 @@
         <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>540</v>
@@ -7187,13 +7181,13 @@
         <v>395402</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M20" s="7">
         <v>851</v>
@@ -7202,13 +7196,13 @@
         <v>729095</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,7 +7214,7 @@
         <v>429</v>
       </c>
       <c r="D21" s="7">
-        <v>459086</v>
+        <v>459087</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>55</v>
@@ -7276,13 +7270,13 @@
         <v>42527</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -7291,13 +7285,13 @@
         <v>9451</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7306,13 +7300,13 @@
         <v>51978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,13 +7321,13 @@
         <v>81823</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -7342,13 +7336,13 @@
         <v>17776</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -7357,13 +7351,13 @@
         <v>99599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>232</v>
+        <v>538</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7372,13 @@
         <v>63492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>542</v>
+        <v>262</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -7393,13 +7387,13 @@
         <v>21658</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -7408,13 +7402,13 @@
         <v>85150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7423,13 @@
         <v>182705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -7444,13 +7438,13 @@
         <v>94817</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>313</v>
+        <v>548</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -7459,13 +7453,13 @@
         <v>277522</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7474,13 @@
         <v>1452330</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H26" s="7">
         <v>1819</v>
@@ -7495,13 +7489,13 @@
         <v>1358339</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="M26" s="7">
         <v>3173</v>
@@ -7510,13 +7504,13 @@
         <v>2810669</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,7 +7566,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0103503-CA5B-48CB-86E7-2FF4A4C2B9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB235BA3-B291-4A02-94AE-5A9094040CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB1944CA-63EA-4424-A760-036B2267A72C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FFF9F1F-3A4C-4732-8C69-D8EB7A84A0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="551">
   <si>
     <t>Población según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 42,65%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -89,7 +89,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>3,64%</t>
   </si>
   <si>
     <t>0,78%</t>
@@ -98,1575 +98,1548 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>De 10 a 20</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>De 6 a 9</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>De 1 a 5</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>De 10 a 20</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>De 6 a 9</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>De 1 a 5</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2015 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
     <t>3,15%</t>
   </si>
   <si>
@@ -1701,9 +1674,6 @@
   </si>
   <si>
     <t>73,04%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
   </si>
   <si>
     <t>90,43%</t>
@@ -2133,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8C2094-44A9-46CA-9434-C73123300988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E0CA7-4BD8-4A35-805F-A7A622430CFE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2619,10 +2589,10 @@
         <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2631,10 +2601,10 @@
         <v>8201</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>69</v>
@@ -2942,10 +2912,10 @@
         <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2954,13 +2924,13 @@
         <v>25611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2945,13 @@
         <v>14935</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2990,13 +2960,13 @@
         <v>5876</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -3005,13 +2975,13 @@
         <v>20811</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +2996,13 @@
         <v>80559</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3041,13 +3011,13 @@
         <v>30635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -3056,13 +3026,13 @@
         <v>111194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3047,13 @@
         <v>272778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>227</v>
@@ -3092,13 +3062,13 @@
         <v>238054</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -3107,13 +3077,13 @@
         <v>510832</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3151,13 @@
         <v>30789</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3196,13 +3166,13 @@
         <v>9600</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3214,10 +3184,10 @@
         <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3202,13 @@
         <v>35640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3247,13 +3217,13 @@
         <v>16457</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -3262,13 +3232,13 @@
         <v>52097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3253,13 @@
         <v>50451</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3298,13 +3268,13 @@
         <v>9838</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -3313,13 +3283,13 @@
         <v>60289</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3304,13 @@
         <v>282686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -3349,13 +3319,13 @@
         <v>78795</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>349</v>
@@ -3364,13 +3334,13 @@
         <v>361481</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3355,13 @@
         <v>1485577</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>864</v>
@@ -3400,13 +3370,13 @@
         <v>902849</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>2280</v>
@@ -3415,13 +3385,13 @@
         <v>2388426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,7 +3447,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17615B0D-9350-4916-8F97-55A7F149B95E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DA938C-60C6-45D7-AE6D-2058A025C370}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3513,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3620,13 +3590,13 @@
         <v>1948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3641,7 +3611,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3650,13 +3620,13 @@
         <v>1948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3641,13 @@
         <v>1085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3692,7 +3662,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3701,13 +3671,13 @@
         <v>1085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3692,13 @@
         <v>1880</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3737,7 +3707,7 @@
         <v>2034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
@@ -3779,7 +3749,7 @@
         <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3788,13 +3758,13 @@
         <v>11123</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -3803,13 +3773,13 @@
         <v>31624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3794,13 @@
         <v>158604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -3839,13 +3809,13 @@
         <v>126820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>269</v>
@@ -3854,13 +3824,13 @@
         <v>285424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3898,13 @@
         <v>15739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3949,7 +3919,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3961,10 +3931,10 @@
         <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3949,13 @@
         <v>11379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3994,13 +3964,13 @@
         <v>7038</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -4009,13 +3979,13 @@
         <v>18416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4000,13 @@
         <v>22721</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4045,13 +4015,13 @@
         <v>7723</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -4251,7 +4221,7 @@
         <v>2942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>251</v>
@@ -4266,13 +4236,13 @@
         <v>15226</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4257,7 @@
         <v>11641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>255</v>
@@ -4320,10 +4290,10 @@
         <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4308,13 @@
         <v>14355</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4353,13 +4323,13 @@
         <v>1064</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -4368,13 +4338,13 @@
         <v>15420</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4359,13 @@
         <v>83070</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4404,13 +4374,13 @@
         <v>30261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -4419,13 +4389,13 @@
         <v>113331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4410,13 @@
         <v>193970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -4455,13 +4425,13 @@
         <v>197553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -4470,13 +4440,13 @@
         <v>391523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4514,13 @@
         <v>29971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4559,13 +4529,13 @@
         <v>4909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -4574,13 +4544,13 @@
         <v>34880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4565,13 @@
         <v>24104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -4610,13 +4580,13 @@
         <v>10114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -4625,13 +4595,13 @@
         <v>34218</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4616,13 @@
         <v>38956</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4661,13 +4631,13 @@
         <v>10822</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -4676,13 +4646,13 @@
         <v>49778</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4667,13 @@
         <v>260361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -4712,13 +4682,13 @@
         <v>88942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -4727,13 +4697,13 @@
         <v>349303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4718,13 @@
         <v>1058484</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>773</v>
@@ -4763,13 +4733,13 @@
         <v>832017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>316</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>1767</v>
@@ -4778,7 +4748,7 @@
         <v>1890501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>319</v>
@@ -4840,7 +4810,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4859,7 +4829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE45DC50-2B62-4693-99A3-FD41A22C0A66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD6DF5A-D956-4D16-87EE-0F3D8F8DE8C0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4989,7 +4959,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5004,7 +4974,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5040,7 +5010,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5055,7 +5025,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5085,13 +5055,13 @@
         <v>5043</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5100,13 +5070,13 @@
         <v>1112</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5115,10 +5085,10 @@
         <v>6155</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>327</v>
@@ -5154,7 +5124,7 @@
         <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>332</v>
@@ -5205,10 +5175,10 @@
         <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -5217,13 +5187,13 @@
         <v>183845</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5261,13 @@
         <v>6953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5306,13 +5276,13 @@
         <v>5427</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5321,13 +5291,13 @@
         <v>12380</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5312,13 @@
         <v>10981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5357,13 +5327,13 @@
         <v>885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5372,13 +5342,13 @@
         <v>11866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5363,13 @@
         <v>19777</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5408,13 +5378,13 @@
         <v>7770</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -5423,13 +5393,13 @@
         <v>27548</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5414,13 @@
         <v>100971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5459,13 +5429,13 @@
         <v>41556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -5474,13 +5444,13 @@
         <v>142527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5465,13 @@
         <v>779430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -5510,13 +5480,13 @@
         <v>593953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>1317</v>
@@ -5525,13 +5495,13 @@
         <v>1373382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5569,13 @@
         <v>11141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5614,13 +5584,13 @@
         <v>1813</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5629,13 +5599,13 @@
         <v>12954</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5620,13 @@
         <v>7914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5665,13 +5635,13 @@
         <v>4731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5680,10 +5650,10 @@
         <v>12645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>252</v>
@@ -5701,13 +5671,13 @@
         <v>18839</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5716,13 +5686,13 @@
         <v>8181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5731,13 +5701,13 @@
         <v>27020</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5722,13 @@
         <v>57386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -5767,13 +5737,13 @@
         <v>29262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -5782,13 +5752,13 @@
         <v>86649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5773,13 @@
         <v>252762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -5818,13 +5788,13 @@
         <v>261621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -5833,13 +5803,13 @@
         <v>514384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5877,13 @@
         <v>18094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5922,13 +5892,13 @@
         <v>7240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5937,13 +5907,13 @@
         <v>25334</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5928,13 @@
         <v>18894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5973,13 +5943,13 @@
         <v>5616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -5988,13 +5958,13 @@
         <v>24511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>420</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5979,13 @@
         <v>43659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>413</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -6024,13 +5994,13 @@
         <v>17064</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>259</v>
+        <v>388</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
@@ -6039,13 +6009,13 @@
         <v>60722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>417</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6030,13 @@
         <v>176344</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -6075,13 +6045,13 @@
         <v>73900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -6090,13 +6060,13 @@
         <v>250244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6081,13 @@
         <v>1149130</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
         <v>905</v>
@@ -6126,13 +6096,13 @@
         <v>922481</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M26" s="7">
         <v>1980</v>
@@ -6141,13 +6111,13 @@
         <v>2071611</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,7 +6173,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6222,7 +6192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03795EFD-A120-4A3A-B9BE-9CF69D3A52DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BB04B2-33D9-466B-9ED9-91549E4A0351}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6239,7 +6209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6352,7 +6322,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6367,7 +6337,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6382,7 +6352,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6367,13 @@
         <v>5702</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6418,7 +6388,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6427,13 +6397,13 @@
         <v>5702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6418,13 @@
         <v>1467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6469,7 +6439,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6484,7 +6454,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6469,13 @@
         <v>6120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>301</v>
+        <v>448</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -6514,13 +6484,13 @@
         <v>6050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>451</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -6529,13 +6499,13 @@
         <v>12170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6520,13 @@
         <v>120910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H8" s="7">
         <v>114</v>
@@ -6565,13 +6535,13 @@
         <v>86038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M8" s="7">
         <v>243</v>
@@ -6580,13 +6550,13 @@
         <v>206947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6624,13 @@
         <v>20624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6669,13 +6639,13 @@
         <v>2282</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>468</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -6684,13 +6654,13 @@
         <v>22905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6675,13 @@
         <v>64596</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -6720,10 +6690,10 @@
         <v>6639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>57</v>
@@ -6738,10 +6708,10 @@
         <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6726,13 @@
         <v>37631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6771,13 +6741,13 @@
         <v>10357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>475</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -6786,13 +6756,13 @@
         <v>47988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>476</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>477</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6777,13 @@
         <v>109014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6822,13 +6792,13 @@
         <v>44797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -6837,13 +6807,13 @@
         <v>153811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6828,13 @@
         <v>997728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="H14" s="7">
         <v>1165</v>
@@ -6873,13 +6843,13 @@
         <v>876898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M14" s="7">
         <v>2079</v>
@@ -6888,13 +6858,13 @@
         <v>1874626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6932,13 @@
         <v>21903</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6977,13 +6947,13 @@
         <v>7169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -6992,13 +6962,13 @@
         <v>29072</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +6983,13 @@
         <v>11525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -7028,7 +6998,7 @@
         <v>11138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>65</v>
@@ -7043,13 +7013,13 @@
         <v>22662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7034,13 @@
         <v>24394</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -7079,13 +7049,13 @@
         <v>11301</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -7094,13 +7064,13 @@
         <v>35695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>514</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7085,13 @@
         <v>67571</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -7130,13 +7100,13 @@
         <v>43971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>520</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -7145,13 +7115,13 @@
         <v>111542</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,13 +7136,13 @@
         <v>333693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>518</v>
       </c>
       <c r="H20" s="7">
         <v>540</v>
@@ -7181,13 +7151,13 @@
         <v>395402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>526</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M20" s="7">
         <v>851</v>
@@ -7196,13 +7166,13 @@
         <v>729095</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,13 +7240,13 @@
         <v>42527</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -7285,13 +7255,13 @@
         <v>9451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>534</v>
+        <v>33</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7300,10 +7270,10 @@
         <v>51978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>227</v>
@@ -7321,13 +7291,13 @@
         <v>81823</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>527</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>536</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -7336,13 +7306,13 @@
         <v>17776</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>537</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>528</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -7351,13 +7321,13 @@
         <v>99599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,13 +7342,13 @@
         <v>63492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -7387,13 +7357,13 @@
         <v>21658</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>532</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -7402,13 +7372,13 @@
         <v>85150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>541</v>
+        <v>221</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7393,13 @@
         <v>182705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -7438,13 +7408,13 @@
         <v>94817</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -7453,13 +7423,13 @@
         <v>277522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7444,13 @@
         <v>1452330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>554</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>1819</v>
@@ -7489,13 +7459,13 @@
         <v>1358339</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="M26" s="7">
         <v>3173</v>
@@ -7504,13 +7474,13 @@
         <v>2810669</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,7 +7536,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB235BA3-B291-4A02-94AE-5A9094040CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92170D9-A20C-479F-8247-75AA941FDB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FFF9F1F-3A4C-4732-8C69-D8EB7A84A0A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79B20DC8-A140-4EA6-93F1-CDB2919F76DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="563">
   <si>
     <t>Población según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 42,65%)</t>
   </si>
@@ -77,1621 +77,1657 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,15%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>De 10 a 20</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>De 6 a 9</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>De 1 a 5</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>De 10 a 20</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>De 6 a 9</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>De 1 a 5</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>86,32%</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E0CA7-4BD8-4A35-805F-A7A622430CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F8CC0B-3EE5-4D15-BF60-F4D74C79FBAE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2589,10 +2625,10 @@
         <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2601,13 +2637,13 @@
         <v>8201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2616,10 +2652,10 @@
         <v>23565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>72</v>
@@ -2718,13 +2754,13 @@
         <v>200034</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2775,13 @@
         <v>897480</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -2754,13 +2790,13 @@
         <v>518531</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>1353</v>
@@ -2769,13 +2805,13 @@
         <v>1416011</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2867,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2879,13 @@
         <v>13088</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2858,13 +2894,13 @@
         <v>6658</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2873,13 +2909,13 @@
         <v>19746</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2930,13 @@
         <v>17355</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2909,13 +2945,13 @@
         <v>8256</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2924,13 +2960,13 @@
         <v>25611</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2981,13 @@
         <v>14935</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2960,13 +2996,13 @@
         <v>5876</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -2975,13 +3011,13 @@
         <v>20811</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +3032,13 @@
         <v>80559</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3011,13 +3047,13 @@
         <v>30635</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>108</v>
@@ -3026,7 +3062,7 @@
         <v>111194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>134</v>
@@ -3154,10 +3190,10 @@
         <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3166,13 +3202,13 @@
         <v>9600</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3181,13 +3217,13 @@
         <v>40389</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3238,13 @@
         <v>35640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3217,13 +3253,13 @@
         <v>16457</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -3232,13 +3268,13 @@
         <v>52097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3289,13 @@
         <v>50451</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3268,13 +3304,13 @@
         <v>9838</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -3283,13 +3319,13 @@
         <v>60289</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3340,13 @@
         <v>282686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -3319,13 +3355,13 @@
         <v>78795</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>349</v>
@@ -3334,13 +3370,13 @@
         <v>361481</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3391,13 @@
         <v>1485577</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>864</v>
@@ -3370,13 +3406,13 @@
         <v>902849</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>2280</v>
@@ -3385,13 +3421,13 @@
         <v>2388426</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,7 +3483,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DA938C-60C6-45D7-AE6D-2058A025C370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621ECA94-E77D-447D-A0DD-2FBCCA336C7A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3590,13 +3626,13 @@
         <v>1948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3611,7 +3647,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3620,13 +3656,13 @@
         <v>1948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3677,13 @@
         <v>1085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3662,7 +3698,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3671,13 +3707,13 @@
         <v>1085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3728,13 @@
         <v>1880</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3707,13 +3743,13 @@
         <v>2034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -3722,13 +3758,13 @@
         <v>3914</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3779,13 @@
         <v>20501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3758,13 +3794,13 @@
         <v>11123</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -3773,13 +3809,13 @@
         <v>31624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3830,13 @@
         <v>158604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -3809,13 +3845,13 @@
         <v>126820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>269</v>
@@ -3824,13 +3860,13 @@
         <v>285424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3934,13 @@
         <v>15739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3919,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3928,13 +3964,13 @@
         <v>17706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,7 +3991,7 @@
         <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3964,13 +4000,13 @@
         <v>7038</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -3979,13 +4015,13 @@
         <v>18416</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4036,13 @@
         <v>22721</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4015,13 +4051,13 @@
         <v>7723</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -4030,13 +4066,13 @@
         <v>30444</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4087,13 @@
         <v>156789</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -4066,13 +4102,13 @@
         <v>47558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>193</v>
@@ -4081,13 +4117,13 @@
         <v>204348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4138,13 @@
         <v>705911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>476</v>
@@ -4117,13 +4153,13 @@
         <v>507642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>1145</v>
@@ -4132,13 +4168,13 @@
         <v>1213553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4230,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4206,13 +4242,13 @@
         <v>12284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4224,10 +4260,10 @@
         <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4236,13 +4272,13 @@
         <v>15226</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4293,13 @@
         <v>11641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4275,10 +4311,10 @@
         <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4287,13 +4323,13 @@
         <v>14717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4344,13 @@
         <v>14355</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4323,13 +4359,13 @@
         <v>1064</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -4338,13 +4374,13 @@
         <v>15420</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4395,13 @@
         <v>83070</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4374,13 +4410,13 @@
         <v>30261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -4389,13 +4425,13 @@
         <v>113331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4446,13 @@
         <v>193970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -4425,13 +4461,13 @@
         <v>197553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>353</v>
@@ -4440,13 +4476,13 @@
         <v>391523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4550,13 @@
         <v>29971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4529,13 +4565,13 @@
         <v>4909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -4544,13 +4580,13 @@
         <v>34880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4601,13 @@
         <v>24104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -4580,13 +4616,13 @@
         <v>10114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -4595,13 +4631,13 @@
         <v>34218</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4652,13 @@
         <v>38956</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -4631,13 +4667,13 @@
         <v>10822</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -4646,13 +4682,13 @@
         <v>49778</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4703,13 @@
         <v>260361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -4682,13 +4718,13 @@
         <v>88942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -4697,13 +4733,13 @@
         <v>349303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4754,13 @@
         <v>1058484</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>773</v>
@@ -4733,13 +4769,13 @@
         <v>832017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>1767</v>
@@ -4748,13 +4784,13 @@
         <v>1890501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,7 +4846,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4829,7 +4865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD6DF5A-D956-4D16-87EE-0F3D8F8DE8C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DF3200-B430-4F84-92EF-DD241CF6C024}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4846,7 +4882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4959,7 +4995,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4974,7 +5010,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5010,7 +5046,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5025,7 +5061,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5055,13 +5091,13 @@
         <v>5043</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5070,13 +5106,13 @@
         <v>1112</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5085,13 +5121,13 @@
         <v>6155</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5142,13 @@
         <v>17987</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5121,13 +5157,13 @@
         <v>3082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -5136,13 +5172,13 @@
         <v>21069</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5193,13 @@
         <v>116938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -5172,13 +5208,13 @@
         <v>66908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>176</v>
@@ -5187,13 +5223,13 @@
         <v>183845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5297,13 @@
         <v>6953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5276,13 +5312,13 @@
         <v>5427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5291,13 +5327,13 @@
         <v>12380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5348,13 @@
         <v>10981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5327,13 +5363,13 @@
         <v>885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -5342,13 +5378,13 @@
         <v>11866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5399,13 @@
         <v>19777</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5378,13 +5414,13 @@
         <v>7770</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -5393,13 +5429,13 @@
         <v>27548</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>356</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5450,13 @@
         <v>100971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -5429,13 +5465,13 @@
         <v>41556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -5444,13 +5480,13 @@
         <v>142527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5501,13 @@
         <v>779430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -5480,13 +5516,13 @@
         <v>593953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1317</v>
@@ -5495,13 +5531,13 @@
         <v>1373382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,7 +5593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5569,13 +5605,13 @@
         <v>11141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5584,13 +5620,13 @@
         <v>1813</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5599,13 +5635,13 @@
         <v>12954</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5656,13 @@
         <v>7914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5635,13 +5671,13 @@
         <v>4731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5650,13 +5686,13 @@
         <v>12645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5707,13 @@
         <v>18839</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5686,13 +5722,13 @@
         <v>8181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -5701,13 +5737,13 @@
         <v>27020</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>199</v>
+        <v>397</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5758,13 @@
         <v>57386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -5737,13 +5773,13 @@
         <v>29262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -5752,13 +5788,13 @@
         <v>86649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5809,13 @@
         <v>252762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -5788,13 +5824,13 @@
         <v>261621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>487</v>
@@ -5803,13 +5839,13 @@
         <v>514384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5913,13 @@
         <v>18094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5892,13 +5928,13 @@
         <v>7240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5907,13 +5943,13 @@
         <v>25334</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5964,13 @@
         <v>18894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5943,13 +5979,13 @@
         <v>5616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>410</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>411</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -5958,13 +5994,13 @@
         <v>24511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +6015,13 @@
         <v>43659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5994,13 +6030,13 @@
         <v>17064</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
@@ -6009,13 +6045,13 @@
         <v>60722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>417</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6066,13 @@
         <v>176344</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -6045,13 +6081,13 @@
         <v>73900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>102</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -6060,13 +6096,13 @@
         <v>250244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6117,13 @@
         <v>1149130</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>905</v>
@@ -6096,13 +6132,13 @@
         <v>922481</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>1980</v>
@@ -6111,13 +6147,13 @@
         <v>2071611</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,7 +6209,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6192,7 +6228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BB04B2-33D9-466B-9ED9-91549E4A0351}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EE61FD-3BE9-4405-B655-275A60DF672F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6209,7 +6245,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6322,7 +6358,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6337,7 +6373,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6352,7 +6388,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>437</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6403,13 @@
         <v>5702</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>439</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6388,7 +6424,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6397,13 +6433,13 @@
         <v>5702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6454,13 @@
         <v>1467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6439,7 +6475,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6454,7 +6490,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>446</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6505,13 @@
         <v>6120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>448</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -6484,13 +6520,13 @@
         <v>6050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -6499,13 +6535,13 @@
         <v>12170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6556,13 @@
         <v>120910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>114</v>
@@ -6535,13 +6571,13 @@
         <v>86038</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>243</v>
@@ -6550,13 +6586,13 @@
         <v>206947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6660,13 @@
         <v>20624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>465</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6639,13 +6675,13 @@
         <v>2282</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>474</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -6654,13 +6690,13 @@
         <v>22905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6711,13 @@
         <v>64596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -6690,13 +6726,13 @@
         <v>6639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -6705,13 +6741,13 @@
         <v>71235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6762,13 @@
         <v>37631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>481</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>472</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6741,13 +6777,13 @@
         <v>10357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -6756,13 +6792,13 @@
         <v>47988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>27</v>
+        <v>483</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>188</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6813,13 @@
         <v>109014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6792,13 +6828,13 @@
         <v>44797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>488</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -6807,13 +6843,13 @@
         <v>153811</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6864,13 @@
         <v>997728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>1165</v>
@@ -6843,13 +6879,13 @@
         <v>876898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7">
         <v>2079</v>
@@ -6858,13 +6894,13 @@
         <v>1874626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,7 +6956,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6932,13 +6968,13 @@
         <v>21903</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>490</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6947,13 +6983,13 @@
         <v>7169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>492</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>503</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -6962,13 +6998,13 @@
         <v>29072</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +7019,13 @@
         <v>11525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6998,13 +7034,13 @@
         <v>11138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>508</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7013,13 +7049,13 @@
         <v>22662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7070,13 @@
         <v>24394</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>503</v>
+        <v>391</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -7049,13 +7085,13 @@
         <v>11301</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -7064,13 +7100,13 @@
         <v>35695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>267</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7121,13 @@
         <v>67571</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -7100,13 +7136,13 @@
         <v>43971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -7115,13 +7151,13 @@
         <v>111542</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7172,13 @@
         <v>333693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
         <v>540</v>
@@ -7151,13 +7187,13 @@
         <v>395402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
         <v>851</v>
@@ -7166,13 +7202,13 @@
         <v>729095</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,7 +7220,7 @@
         <v>429</v>
       </c>
       <c r="D21" s="7">
-        <v>459087</v>
+        <v>459086</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>55</v>
@@ -7240,13 +7276,13 @@
         <v>42527</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -7255,13 +7291,13 @@
         <v>9451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>68</v>
+        <v>534</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7270,13 +7306,13 @@
         <v>51978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>525</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,13 +7327,13 @@
         <v>81823</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>527</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>537</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -7306,13 +7342,13 @@
         <v>17776</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>538</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -7321,13 +7357,13 @@
         <v>99599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>232</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7378,13 @@
         <v>63492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>322</v>
+        <v>542</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -7357,13 +7393,13 @@
         <v>21658</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>532</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -7372,13 +7408,13 @@
         <v>85150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>221</v>
+        <v>545</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7429,13 @@
         <v>182705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -7408,13 +7444,13 @@
         <v>94817</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>539</v>
+        <v>313</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -7423,13 +7459,13 @@
         <v>277522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7480,13 @@
         <v>1452330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>556</v>
       </c>
       <c r="H26" s="7">
         <v>1819</v>
@@ -7459,13 +7495,13 @@
         <v>1358339</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="M26" s="7">
         <v>3173</v>
@@ -7474,13 +7510,13 @@
         <v>2810669</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,7 +7572,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92170D9-A20C-479F-8247-75AA941FDB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB0EB73A-5CC5-4B89-8A31-D6D69221CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79B20DC8-A140-4EA6-93F1-CDB2919F76DC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{15B5F88D-CCB4-419D-9A26-CFBC4C5656AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="559">
   <si>
     <t>Población según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 42,65%)</t>
   </si>
@@ -1382,352 +1382,340 @@
     <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F8CC0B-3EE5-4D15-BF60-F4D74C79FBAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8115E57-45A0-43AB-BE06-2F3EDF736487}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2853,7 +2841,7 @@
         <v>1618</v>
       </c>
       <c r="N15" s="7">
-        <v>1690684</v>
+        <v>1690683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>55</v>
@@ -3502,7 +3490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621ECA94-E77D-447D-A0DD-2FBCCA336C7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437923A8-A97B-4FB3-A10C-B9C5E6E800D8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4865,7 +4853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DF3200-B430-4F84-92EF-DD241CF6C024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FB09CD-C501-4D32-BA29-48D71B3931A0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6228,7 +6216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EE61FD-3BE9-4405-B655-275A60DF672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6E568D-3B81-4940-98F8-3BA10068D675}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6400,13 +6388,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>5702</v>
+        <v>5954</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>448</v>
@@ -6430,16 +6418,16 @@
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>5702</v>
+        <v>5954</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,16 +6439,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1467</v>
+        <v>1401</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>452</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6481,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1467</v>
+        <v>1401</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>14</v>
@@ -6490,7 +6478,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,46 +6490,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>6120</v>
+        <v>5960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>6050</v>
+        <v>5709</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>12170</v>
+        <v>11670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>460</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,46 +6541,46 @@
         <v>129</v>
       </c>
       <c r="D8" s="7">
-        <v>120910</v>
+        <v>118787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H8" s="7">
         <v>114</v>
       </c>
       <c r="I8" s="7">
-        <v>86038</v>
+        <v>77240</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>243</v>
       </c>
       <c r="N8" s="7">
-        <v>206947</v>
+        <v>196027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,7 +6592,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="7">
-        <v>134198</v>
+        <v>132103</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>55</v>
@@ -6619,7 +6607,7 @@
         <v>123</v>
       </c>
       <c r="I9" s="7">
-        <v>92088</v>
+        <v>82949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -6634,7 +6622,7 @@
         <v>265</v>
       </c>
       <c r="N9" s="7">
-        <v>226285</v>
+        <v>215052</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>55</v>
@@ -6657,46 +6645,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>20624</v>
+        <v>19636</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>471</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2282</v>
+        <v>2077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>472</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>22905</v>
+        <v>21713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,46 +6696,46 @@
         <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>64596</v>
+        <v>257234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>6639</v>
+        <v>5945</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>71235</v>
+        <v>263179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,46 +6747,46 @@
         <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>37631</v>
+        <v>35000</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>307</v>
+        <v>425</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>126</v>
+        <v>477</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>10357</v>
+        <v>9351</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>359</v>
+        <v>479</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>101</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
       </c>
       <c r="N12" s="7">
-        <v>47988</v>
+        <v>44352</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,46 +6798,46 @@
         <v>111</v>
       </c>
       <c r="D13" s="7">
-        <v>109014</v>
+        <v>104901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>44797</v>
+        <v>41960</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>485</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
       </c>
       <c r="N13" s="7">
-        <v>153811</v>
+        <v>146861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,46 +6849,46 @@
         <v>914</v>
       </c>
       <c r="D14" s="7">
-        <v>997728</v>
+        <v>960146</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H14" s="7">
         <v>1165</v>
       </c>
       <c r="I14" s="7">
-        <v>876898</v>
+        <v>883979</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M14" s="7">
         <v>2079</v>
       </c>
       <c r="N14" s="7">
-        <v>1874626</v>
+        <v>1844125</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,7 +6900,7 @@
         <v>1087</v>
       </c>
       <c r="D15" s="7">
-        <v>1229593</v>
+        <v>1376918</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>55</v>
@@ -6927,7 +6915,7 @@
         <v>1263</v>
       </c>
       <c r="I15" s="7">
-        <v>940972</v>
+        <v>943312</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>55</v>
@@ -6942,7 +6930,7 @@
         <v>2350</v>
       </c>
       <c r="N15" s="7">
-        <v>2170565</v>
+        <v>2320230</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>55</v>
@@ -6965,46 +6953,46 @@
         <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>21903</v>
+        <v>20440</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>7169</v>
+        <v>6687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>502</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>29072</v>
+        <v>27126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,46 +7004,46 @@
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>11525</v>
+        <v>10839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>504</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>11138</v>
+        <v>10148</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>506</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>22662</v>
+        <v>20987</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,28 +7055,28 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>24394</v>
+        <v>22234</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>11301</v>
+        <v>10580</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>514</v>
@@ -7097,16 +7085,16 @@
         <v>40</v>
       </c>
       <c r="N18" s="7">
-        <v>35695</v>
+        <v>32814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,46 +7106,46 @@
         <v>66</v>
       </c>
       <c r="D19" s="7">
-        <v>67571</v>
+        <v>66360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>43971</v>
+        <v>40906</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
       </c>
       <c r="N19" s="7">
-        <v>111542</v>
+        <v>107266</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,22 +7157,22 @@
         <v>311</v>
       </c>
       <c r="D20" s="7">
-        <v>333693</v>
+        <v>323983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>540</v>
       </c>
       <c r="I20" s="7">
-        <v>395402</v>
+        <v>366908</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>527</v>
@@ -7199,7 +7187,7 @@
         <v>851</v>
       </c>
       <c r="N20" s="7">
-        <v>729095</v>
+        <v>690890</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>530</v>
@@ -7220,7 +7208,7 @@
         <v>429</v>
       </c>
       <c r="D21" s="7">
-        <v>459086</v>
+        <v>443855</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>55</v>
@@ -7235,7 +7223,7 @@
         <v>645</v>
       </c>
       <c r="I21" s="7">
-        <v>468981</v>
+        <v>435229</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>55</v>
@@ -7250,7 +7238,7 @@
         <v>1074</v>
       </c>
       <c r="N21" s="7">
-        <v>928067</v>
+        <v>879083</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>55</v>
@@ -7273,46 +7261,46 @@
         <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>42527</v>
+        <v>40076</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>9451</v>
+        <v>8763</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>534</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
       </c>
       <c r="N22" s="7">
-        <v>51978</v>
+        <v>48839</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,46 +7312,46 @@
         <v>28</v>
       </c>
       <c r="D23" s="7">
-        <v>81823</v>
+        <v>274027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>17776</v>
+        <v>16093</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>538</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>420</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
       </c>
       <c r="N23" s="7">
-        <v>99599</v>
+        <v>290120</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>232</v>
+        <v>536</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>537</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,46 +7363,46 @@
         <v>56</v>
       </c>
       <c r="D24" s="7">
-        <v>63492</v>
+        <v>58635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>541</v>
+        <v>232</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>542</v>
+        <v>258</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
       </c>
       <c r="I24" s="7">
-        <v>21658</v>
+        <v>19932</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>544</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>540</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
       </c>
       <c r="N24" s="7">
-        <v>85150</v>
+        <v>78567</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>545</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,46 +7414,46 @@
         <v>183</v>
       </c>
       <c r="D25" s="7">
-        <v>182705</v>
+        <v>177222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
       </c>
       <c r="I25" s="7">
-        <v>94817</v>
+        <v>88575</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>550</v>
+        <v>272</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>313</v>
+        <v>547</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
       </c>
       <c r="N25" s="7">
-        <v>277522</v>
+        <v>265797</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,46 +7465,46 @@
         <v>1354</v>
       </c>
       <c r="D26" s="7">
-        <v>1452330</v>
+        <v>1402915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H26" s="7">
         <v>1819</v>
       </c>
       <c r="I26" s="7">
-        <v>1358339</v>
+        <v>1328127</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M26" s="7">
         <v>3173</v>
       </c>
       <c r="N26" s="7">
-        <v>2810669</v>
+        <v>2731041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>560</v>
+        <v>244</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +7516,7 @@
         <v>1658</v>
       </c>
       <c r="D27" s="7">
-        <v>1822877</v>
+        <v>1952875</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>55</v>
@@ -7543,7 +7531,7 @@
         <v>2031</v>
       </c>
       <c r="I27" s="7">
-        <v>1502041</v>
+        <v>1461490</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>55</v>
@@ -7558,7 +7546,7 @@
         <v>3689</v>
       </c>
       <c r="N27" s="7">
-        <v>3324918</v>
+        <v>3414365</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>55</v>
